--- a/2sem/labs/2.1.1/process/data_normal.xlsx
+++ b/2sem/labs/2.1.1/process/data_normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mipt_edu\2sem\labs\2.1.1\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42161E8-657F-43F1-B595-AFE67761B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F73EC-882B-48FC-81DC-3CEE2E2E1726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Values</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>hPa</t>
-  </si>
-  <si>
-    <t>po0</t>
   </si>
   <si>
     <t>Q</t>
@@ -406,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="101" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,6 +413,7 @@
     <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -423,16 +421,16 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="AD1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -446,76 +444,73 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
         <v>11</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
       </c>
       <c r="W2" t="s">
         <v>1</v>
       </c>
       <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="s">
         <v>11</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>12</v>
       </c>
       <c r="AD2" t="s">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -537,9 +532,6 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
@@ -553,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <f>L3/$G$4</f>
+        <f>L3/$F$4</f>
         <v>2.4570024570024569E-2</v>
       </c>
       <c r="N3">
@@ -573,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <f>S3/$G$4</f>
+        <f>S3/$F$4</f>
         <v>2.4570024570024569E-2</v>
       </c>
       <c r="U3">
@@ -593,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <f>Z3/$G$4</f>
+        <f>Z3/$F$4</f>
         <v>2.4570024570024569E-2</v>
       </c>
       <c r="AB3">
@@ -604,7 +596,8 @@
         <v>2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -625,10 +618,6 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F4">
-        <f>E4 *C4 *100 / 8.31 / (B4+273)</f>
-        <v>1.1851074901616419</v>
-      </c>
-      <c r="G4">
         <v>40.700000000000003</v>
       </c>
       <c r="I4" t="s">
@@ -644,7 +633,7 @@
         <v>64</v>
       </c>
       <c r="M4">
-        <f>L4/$G$4</f>
+        <f>L4/$F$4</f>
         <v>1.5724815724815724</v>
       </c>
       <c r="N4">
@@ -664,7 +653,7 @@
         <v>54</v>
       </c>
       <c r="T4">
-        <f>S4/$G$4</f>
+        <f>S4/$F$4</f>
         <v>1.3267813267813267</v>
       </c>
       <c r="U4">
@@ -684,7 +673,7 @@
         <v>45</v>
       </c>
       <c r="AA4">
-        <f>Z4/$G$4</f>
+        <f>Z4/$F$4</f>
         <v>1.1056511056511056</v>
       </c>
       <c r="AB4">
@@ -710,7 +699,7 @@
         <v>130</v>
       </c>
       <c r="M5">
-        <f>L5/$G$4</f>
+        <f>L5/$F$4</f>
         <v>3.1941031941031941</v>
       </c>
       <c r="N5">
@@ -727,7 +716,7 @@
         <v>129</v>
       </c>
       <c r="T5">
-        <f>S5/$G$4</f>
+        <f>S5/$F$4</f>
         <v>3.1695331695331692</v>
       </c>
       <c r="U5">
@@ -744,7 +733,7 @@
         <v>92</v>
       </c>
       <c r="AA5">
-        <f>Z5/$G$4</f>
+        <f>Z5/$F$4</f>
         <v>2.2604422604422605</v>
       </c>
       <c r="AB5">
@@ -767,7 +756,7 @@
         <v>193</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M7" si="3">L6/$G$4</f>
+        <f>L6/$F$4</f>
         <v>4.7420147420147414</v>
       </c>
       <c r="N6">
@@ -784,7 +773,7 @@
         <v>196</v>
       </c>
       <c r="T6">
-        <f>S6/$G$4</f>
+        <f>S6/$F$4</f>
         <v>4.8157248157248151</v>
       </c>
       <c r="U6">
@@ -801,7 +790,7 @@
         <v>161</v>
       </c>
       <c r="AA6">
-        <f>Z6/$G$4</f>
+        <f>Z6/$F$4</f>
         <v>3.9557739557739553</v>
       </c>
       <c r="AB6">
@@ -824,7 +813,7 @@
         <v>240</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f>L7/$F$4</f>
         <v>5.8968058968058967</v>
       </c>
       <c r="N7">
@@ -841,7 +830,7 @@
         <v>279</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7" si="4">S7/$G$4</f>
+        <f>S7/$F$4</f>
         <v>6.8550368550368548</v>
       </c>
       <c r="U7">
@@ -858,7 +847,7 @@
         <v>264</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7" si="5">Z7/$G$4</f>
+        <f>Z7/$F$4</f>
         <v>6.486486486486486</v>
       </c>
       <c r="AB7">
@@ -872,6 +861,50 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0917E53A-92EC-4790-B41B-904D7A2926F8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'L1'!K16:K16</xm:f>
+              <xm:sqref>L16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K17:K17</xm:f>
+              <xm:sqref>L17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K18:K18</xm:f>
+              <xm:sqref>L18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K19:K19</xm:f>
+              <xm:sqref>L19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K20:K20</xm:f>
+              <xm:sqref>L20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K21:K21</xm:f>
+              <xm:sqref>L21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K22:K22</xm:f>
+              <xm:sqref>L22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'L1'!K23:K23</xm:f>
+              <xm:sqref>L23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{43974476-1B6E-4F7D-8FD1-3F387B7B97D3}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -916,50 +949,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0917E53A-92EC-4790-B41B-904D7A2926F8}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'L1'!K16:K16</xm:f>
-              <xm:sqref>L16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K17:K17</xm:f>
-              <xm:sqref>L17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K18:K18</xm:f>
-              <xm:sqref>L18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K19:K19</xm:f>
-              <xm:sqref>L19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K20:K20</xm:f>
-              <xm:sqref>L20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K21:K21</xm:f>
-              <xm:sqref>L21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K22:K22</xm:f>
-              <xm:sqref>L22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'L1'!K23:K23</xm:f>
-              <xm:sqref>L23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
